--- a/Assets/Data/DataTable/03_Monster_Table.xlsx
+++ b/Assets/Data/DataTable/03_Monster_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdw33\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4608C44D-2BA5-4476-BA74-EDCB5D957CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A8FC37-B3C1-4BB2-965B-BE49273CBE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{22C2740E-555D-44E6-96C3-A8413D70B35E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{22C2740E-555D-44E6-96C3-A8413D70B35E}"/>
   </bookViews>
   <sheets>
     <sheet name="!Logic" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
   <si>
     <t>Skill1_ID</t>
   </si>
@@ -309,11 +309,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>enum:Weak_Type:Radiation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum:Resist_Type:Gravity</t>
+    <t>enum:WEAK_TYPE:RADIATION</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,14 +371,6 @@
       <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -470,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -543,13 +531,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,34 +643,19 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -646,17 +667,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1287,14 +1341,14 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="30" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
     <col min="5" max="5" width="60.625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
@@ -1304,42 +1358,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
     </row>
     <row r="2" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="L2" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="33" t="s">
         <v>11</v>
       </c>
       <c r="N2" s="13" t="s">
@@ -1350,20 +1408,23 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="L3" s="41">
+        <v>1</v>
+      </c>
+      <c r="M3" s="34" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="4" t="s">
@@ -1374,92 +1435,104 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="L4" s="41">
+        <v>2</v>
+      </c>
+      <c r="M4" s="35" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="L5" s="41">
+        <v>3</v>
+      </c>
+      <c r="M5" s="36" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="L6" s="41">
+        <v>4</v>
+      </c>
+      <c r="M6" s="37" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="L7" s="41">
+        <v>5</v>
+      </c>
+      <c r="M7" s="38" t="s">
         <v>24</v>
       </c>
       <c r="N7" s="4" t="s">
@@ -1470,64 +1543,64 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="25" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="4"/>
@@ -1536,13 +1609,13 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="4"/>
@@ -1552,7 +1625,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1565,13 +1638,13 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="9" width="19.875" customWidth="1"/>
-    <col min="10" max="11" width="25.5" customWidth="1"/>
+    <col min="10" max="11" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1580,31 +1653,31 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="22" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="8" t="s">
@@ -1646,7 +1719,7 @@
         <v>70</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1706,11 +1779,11 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>8</v>
+      <c r="J5" s="19">
+        <v>1</v>
+      </c>
+      <c r="K5" s="18">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1735,11 +1808,11 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>8</v>
+      <c r="J6" s="19">
+        <v>1</v>
+      </c>
+      <c r="K6" s="18">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1764,11 +1837,11 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>8</v>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="18">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">

--- a/Assets/Data/DataTable/03_Monster_Table.xlsx
+++ b/Assets/Data/DataTable/03_Monster_Table.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdw33\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A8FC37-B3C1-4BB2-965B-BE49273CBE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E757535-1D72-404F-9A57-C65C9EF55656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{22C2740E-555D-44E6-96C3-A8413D70B35E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{22C2740E-555D-44E6-96C3-A8413D70B35E}"/>
   </bookViews>
   <sheets>
     <sheet name="!Logic" sheetId="2" r:id="rId1"/>
     <sheet name="Monster_Data_Table" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,15 +37,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
-  <si>
-    <t>Skill1_ID</t>
-  </si>
-  <si>
-    <t>Skill2_ID</t>
-  </si>
-  <si>
-    <t>Monster_Data_Table</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
+  <si>
+    <t>칼럼명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 관계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type [Enum테이블]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -53,210 +75,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>몬스터를 고유하게 식별하는 기본키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>속성 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>Mob_Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터와 시스템이 캐릭터를 식별하는 대표 이름.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강한 공격력과 지속 피해(화상)를 부여하는 속성. 적의 방어력을 무시하거나 장판형 스킬과 자주 결합됩니다.</t>
+  </si>
+  <si>
+    <t>Mob_Default_HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 체력</t>
+  </si>
+  <si>
     <t>Double</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weak_Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resist_Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Radiation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gravity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type [Enum테이블]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum</t>
-  </si>
-  <si>
-    <t>속성 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-  </si>
-  <si>
-    <t>Fire</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강한 공격력과 지속 피해(화상)를 부여하는 속성. 적의 방어력을 무시하거나 장판형 스킬과 자주 결합됩니다.</t>
-  </si>
-  <si>
-    <t>중력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>적의 이동 속도나 행동력을 제한하는 제어형 속성. 억제, 구속, 스피드 감소 등과 연계되는 효과를 가짐.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방사능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복 방해, 중독성 도트 피해, 스태미나/체력 회복량 감소 등 장기전에 특화된 교란 속성입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Holy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복, 정화, 보호막 등 아군 지원에 강하며, 어둠/언데드 계열 적에게 추가 피해를 입힙니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Void</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>적의 방어력을 무시하거나, 확률적 상태이상(혼란, 침묵 등)을 유발하는 공격 중심의 속성입니다. SF나 초월적 존재의 힘을 상징합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 체력</t>
-  </si>
-  <si>
-    <t>기본 공격력</t>
-  </si>
-  <si>
-    <t>기본 AP 보유량</t>
-  </si>
-  <si>
-    <t>기본 스피드값</t>
-  </si>
-  <si>
-    <t>스킬1_ID</t>
-  </si>
-  <si>
-    <t>스킬2_ID</t>
-  </si>
-  <si>
-    <t>스킬3_ID</t>
-  </si>
-  <si>
-    <t>약점 속성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저항 속성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum:Weak_Type:Radiation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum:Resist_Type:Gravity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill3_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mob_Name_1001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mob_Name_1002</t>
-  </si>
-  <si>
-    <t>Mob_Name_1003</t>
-  </si>
-  <si>
-    <t>Mob_Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mob_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mob_Default_HP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mob_Default_Attack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mob_Default_AP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mob_Default_Speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공허</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼럼명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>역할</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자료형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블 관계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 사용에 필요한 자원, 전투 중 회복 또는 소비됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character_Skill_Table의 Key</t>
-  </si>
-  <si>
-    <t>몬스터를 고유하게 식별하는 기본키</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터와 시스템이 캐릭터를 식별하는 대표 이름.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -265,8 +128,73 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Gravity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 이동 속도나 행동력을 제한하는 제어형 속성. 억제, 구속, 스피드 감소 등과 연계되는 효과를 가짐.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob_Default_Attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격력</t>
+  </si>
+  <si>
     <t>몬스터의 공격력. 일반 공격의 대미지를 결정.</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radiation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방사능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복 방해, 중독성 도트 피해, 스태미나/체력 회복량 감소 등 장기전에 특화된 교란 속성입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob_Default_AP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 AP 보유량</t>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 사용에 필요한 자원, 전투 중 회복 또는 소비됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복, 정화, 보호막 등 아군 지원에 강하며, 어둠/언데드 계열 적에게 추가 피해를 입힙니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob_Default_Speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 스피드값</t>
   </si>
   <si>
     <t>몬스터의 턴 결정에 기준이 되는 스테이터스.
@@ -274,12 +202,48 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>해당 몬스터가 피해를 받을 때, 저항되는 속성을 식별하는 역할.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 몬스터의 약점이 되는 속성을 식별하는 역할.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Void</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공허</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 방어력을 무시하거나, 확률적 상태이상(혼란, 침묵 등)을 유발하는 공격 중심의 속성입니다. SF나 초월적 존재의 힘을 상징합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill1_ID</t>
+  </si>
+  <si>
+    <t>스킬1_ID</t>
+  </si>
+  <si>
+    <t>Character_Skill_Table의 Key</t>
+  </si>
+  <si>
+    <t>해당 몬스터가 전투에서 사용하는 첫 번째 스킬 ID. 
+Skill 테이블과 연동되어 스킬 상세정보를 불러옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2_ID</t>
+  </si>
+  <si>
+    <t>스킬2_ID</t>
+  </si>
+  <si>
+    <t>해당 몬스터가 전투에서 사용하는 두 번째 스킬 ID. 
+Skill 테이블과 연동되어 스킬 상세정보를 불러옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3_ID</t>
   </si>
   <si>
     <t>해당 몬스터가 전투에서 사용하는 세번째 스킬 ID. 
@@ -287,13 +251,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>해당 몬스터가 전투에서 사용하는 두 번째 스킬 ID. 
-Skill 테이블과 연동되어 스킬 상세정보를 불러옴.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 몬스터가 전투에서 사용하는 첫 번째 스킬 ID. 
-Skill 테이블과 연동되어 스킬 상세정보를 불러옴.</t>
+    <t>Weak_Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>약점 속성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum:ELEMENT_TYPE</t>
+  </si>
+  <si>
+    <t>해당 몬스터의 약점이 되는 속성을 식별하는 역할.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resist_Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저항 속성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 몬스터가 피해를 받을 때, 저항되는 속성을 식별하는 역할.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Data_Table</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -309,15 +294,24 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>enum:WEAK_TYPE:RADIATION</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>enum:ELEMENT_TYPE:NONE</t>
+  </si>
+  <si>
+    <t>Mob_Name_1001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob_Name_1002</t>
+  </si>
+  <si>
+    <t>Mob_Name_1003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,37 +673,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1340,11 +1334,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AC4396-150C-4EA7-9B10-DFE014F16E8B}">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -1357,270 +1351,270 @@
     <col min="15" max="15" width="110.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36.75" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
-    </row>
-    <row r="2" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
+    </row>
+    <row r="2" spans="1:15" ht="57" customHeight="1">
       <c r="A2" s="24" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:15" ht="57" customHeight="1">
+      <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>41</v>
-      </c>
       <c r="B3" s="27" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="41">
+        <v>15</v>
+      </c>
+      <c r="L3" s="38">
         <v>1</v>
       </c>
-      <c r="M3" s="34" t="s">
-        <v>14</v>
+      <c r="M3" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="93" customHeight="1">
       <c r="A4" s="24" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="41">
+        <v>22</v>
+      </c>
+      <c r="L4" s="38">
         <v>2</v>
       </c>
-      <c r="M4" s="35" t="s">
-        <v>9</v>
+      <c r="M4" s="33" t="s">
+        <v>23</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="57" customHeight="1">
       <c r="A5" s="24" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="41">
+        <v>28</v>
+      </c>
+      <c r="L5" s="38">
         <v>3</v>
       </c>
-      <c r="M5" s="36" t="s">
-        <v>8</v>
+      <c r="M5" s="34" t="s">
+        <v>29</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="57" customHeight="1">
       <c r="A6" s="24" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="41">
+        <v>35</v>
+      </c>
+      <c r="L6" s="38">
         <v>4</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="57" customHeight="1">
+      <c r="A7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>21</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>4</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="41">
+        <v>41</v>
+      </c>
+      <c r="L7" s="38">
         <v>5</v>
       </c>
-      <c r="M7" s="38" t="s">
-        <v>24</v>
+      <c r="M7" s="36" t="s">
+        <v>42</v>
       </c>
       <c r="N7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="57" customHeight="1">
+      <c r="A8" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="57" customHeight="1">
+      <c r="A9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="B9" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="57" customHeight="1">
+      <c r="A10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="57" customHeight="1">
+      <c r="A11" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>33</v>
-      </c>
       <c r="C11" s="25" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="57" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1637,132 +1631,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F1AF79-054C-4AF9-A33A-904914E7C5BC}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="9" width="19.875" customWidth="1"/>
     <col min="10" max="11" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="14" customFormat="1" ht="21.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I2" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="9">
         <v>3001001</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C5" s="10">
         <v>100</v>
@@ -1786,12 +1780,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="9">
         <v>3001002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C6" s="4">
         <v>100</v>
@@ -1815,12 +1809,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="9">
         <v>3001003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4">
         <v>100</v>
@@ -1844,7 +1838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1857,13 +1851,13 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="C15" s="4"/>
     </row>
   </sheetData>

--- a/Assets/Data/DataTable/03_Monster_Table.xlsx
+++ b/Assets/Data/DataTable/03_Monster_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdw33\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E757535-1D72-404F-9A57-C65C9EF55656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61AE689-FF2D-4CAD-B0A9-4FBA94841223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{22C2740E-555D-44E6-96C3-A8413D70B35E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{22C2740E-555D-44E6-96C3-A8413D70B35E}"/>
   </bookViews>
   <sheets>
     <sheet name="!Logic" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
   <si>
     <t>칼럼명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -305,13 +305,41 @@
   </si>
   <si>
     <t>Mob_Name_1003</t>
+  </si>
+  <si>
+    <t>에셋 경로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image_Path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>penguin_Rfleman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>penguin_Sniper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>penguin_Commander</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob_Name_1004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>penguin_Berserker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,19 +534,6 @@
       <right style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color theme="1" tint="0.499984740745262"/>
@@ -573,13 +588,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -589,9 +617,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -601,21 +626,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -673,37 +695,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1338,11 +1363,11 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="28" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
     <col min="5" max="5" width="60.625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
@@ -1351,269 +1376,269 @@
     <col min="15" max="15" width="110.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41"/>
-    </row>
-    <row r="2" spans="1:15" ht="57" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="39"/>
+    </row>
+    <row r="2" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="57" customHeight="1">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="38">
+      <c r="L3" s="36">
         <v>1</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="93" customHeight="1">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:15" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="36">
         <v>2</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="57" customHeight="1">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="36">
         <v>3</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="M5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="57" customHeight="1">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="36">
         <v>4</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="M6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="57" customHeight="1">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="36">
         <v>5</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="57" customHeight="1">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="57" customHeight="1">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="57" customHeight="1">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="57" customHeight="1">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="57" customHeight="1">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1629,94 +1654,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F1AF79-054C-4AF9-A33A-904914E7C5BC}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="9" width="19.875" customWidth="1"/>
     <col min="10" max="11" width="33.75" customWidth="1"/>
+    <col min="12" max="12" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="14" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:12" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="15" t="s">
+      <c r="L2" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1744,121 +1776,155 @@
       <c r="I4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="14" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="9">
+      <c r="L4" s="40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>3001001</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>100</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>40</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>3</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>10</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="19">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="17">
         <v>1</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="9">
+      <c r="L5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>3001002</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>100</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>40</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>10</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="19">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="17">
         <v>1</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="9">
+      <c r="L6" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>3001003</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>100</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>40</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>3</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>10</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="19">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="17">
         <v>1</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="C15" s="4"/>
+      <c r="L7" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>3001004</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="3">
+        <v>100</v>
+      </c>
+      <c r="D8" s="3">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="17">
+        <v>1</v>
+      </c>
+      <c r="K8" s="16">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Data/DataTable/03_Monster_Table.xlsx
+++ b/Assets/Data/DataTable/03_Monster_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdw33\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E757535-1D72-404F-9A57-C65C9EF55656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6857EA-1D03-423A-9CAC-D6BFFFCB32DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{22C2740E-555D-44E6-96C3-A8413D70B35E}"/>
+    <workbookView xWindow="25755" yWindow="1575" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{22C2740E-555D-44E6-96C3-A8413D70B35E}"/>
   </bookViews>
   <sheets>
     <sheet name="!Logic" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
   <si>
     <t>칼럼명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -305,13 +305,41 @@
   </si>
   <si>
     <t>Mob_Name_1003</t>
+  </si>
+  <si>
+    <t>penguin_Rfleman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>penguin_Sniper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>penguin_Commander</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob_Name_1004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>penguin_Berserker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에셋 파일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset_File</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,19 +534,6 @@
       <right style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color theme="1" tint="0.499984740745262"/>
@@ -573,13 +588,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -589,9 +617,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -601,21 +626,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -673,37 +695,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1338,11 +1363,11 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="28" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
     <col min="5" max="5" width="60.625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
@@ -1351,269 +1376,269 @@
     <col min="15" max="15" width="110.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41"/>
-    </row>
-    <row r="2" spans="1:15" ht="57" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="40"/>
+    </row>
+    <row r="2" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="57" customHeight="1">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="38">
+      <c r="L3" s="36">
         <v>1</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="93" customHeight="1">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:15" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="36">
         <v>2</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="57" customHeight="1">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="36">
         <v>3</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="M5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="57" customHeight="1">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="36">
         <v>4</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="M6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="57" customHeight="1">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="36">
         <v>5</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="57" customHeight="1">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="57" customHeight="1">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="57" customHeight="1">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="57" customHeight="1">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="57" customHeight="1">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1629,94 +1654,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F1AF79-054C-4AF9-A33A-904914E7C5BC}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="9" width="19.875" customWidth="1"/>
     <col min="10" max="11" width="33.75" customWidth="1"/>
+    <col min="12" max="12" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="14" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:12" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="15" t="s">
+      <c r="L2" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1744,121 +1776,155 @@
       <c r="I4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="14" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="9">
+      <c r="L4" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>3001001</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>100</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>40</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>3</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>10</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="19">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="17">
         <v>1</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="9">
+      <c r="L5" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>3001002</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>100</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>40</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>10</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="19">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="17">
         <v>1</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="9">
+      <c r="L6" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>3001003</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>100</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>40</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>3</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>10</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="19">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="17">
         <v>1</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="C15" s="4"/>
+      <c r="L7" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>3001004</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="3">
+        <v>100</v>
+      </c>
+      <c r="D8" s="3">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="17">
+        <v>1</v>
+      </c>
+      <c r="K8" s="16">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Data/DataTable/03_Monster_Table.xlsx
+++ b/Assets/Data/DataTable/03_Monster_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdw33\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwon-yeodi/Documents/GitHub/Astrocat-2DSFProject/Assets/Data/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6857EA-1D03-423A-9CAC-D6BFFFCB32DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941C29E5-836D-6C45-ACA6-9AC7F1BCC375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25755" yWindow="1575" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{22C2740E-555D-44E6-96C3-A8413D70B35E}"/>
+    <workbookView xWindow="2300" yWindow="4020" windowWidth="17100" windowHeight="20180" firstSheet="1" activeTab="1" xr2:uid="{22C2740E-555D-44E6-96C3-A8413D70B35E}"/>
   </bookViews>
   <sheets>
     <sheet name="!Logic" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
   <si>
     <t>칼럼명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -332,6 +332,14 @@
   </si>
   <si>
     <t>Asset_File</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 방어력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob_Default_Defense</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -339,7 +347,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1363,20 +1371,20 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="28" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="11.875" customWidth="1"/>
-    <col min="15" max="15" width="110.875" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" customWidth="1"/>
+    <col min="15" max="15" width="110.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36.75" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +1407,7 @@
       <c r="N1" s="39"/>
       <c r="O1" s="40"/>
     </row>
-    <row r="2" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="57" customHeight="1">
       <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
@@ -1426,7 +1434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="57" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>13</v>
       </c>
@@ -1453,7 +1461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="93" customHeight="1">
       <c r="A4" s="22" t="s">
         <v>19</v>
       </c>
@@ -1480,7 +1488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="57" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>26</v>
       </c>
@@ -1507,7 +1515,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="57" customHeight="1">
       <c r="A6" s="22" t="s">
         <v>32</v>
       </c>
@@ -1534,7 +1542,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="57" customHeight="1">
       <c r="A7" s="24" t="s">
         <v>39</v>
       </c>
@@ -1561,7 +1569,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="57" customHeight="1">
       <c r="A8" s="22" t="s">
         <v>45</v>
       </c>
@@ -1578,7 +1586,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="57" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>49</v>
       </c>
@@ -1595,7 +1603,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="57" customHeight="1">
       <c r="A10" s="22" t="s">
         <v>52</v>
       </c>
@@ -1612,7 +1620,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="57" customHeight="1">
       <c r="A11" s="24" t="s">
         <v>55</v>
       </c>
@@ -1627,7 +1635,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="57" customHeight="1">
       <c r="A12" s="24" t="s">
         <v>59</v>
       </c>
@@ -1654,25 +1662,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F1AF79-054C-4AF9-A33A-904914E7C5BC}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="87" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="9" width="19.875" customWidth="1"/>
-    <col min="10" max="11" width="33.75" customWidth="1"/>
-    <col min="12" max="12" width="36.75" customWidth="1"/>
+    <col min="1" max="9" width="19.83203125" customWidth="1"/>
+    <col min="10" max="11" width="33.6640625" customWidth="1"/>
+    <col min="12" max="12" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="12" customFormat="1" ht="21.75" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
@@ -1686,31 +1694,34 @@
         <v>27</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="13" t="s">
         <v>63</v>
       </c>
@@ -1724,13 +1735,13 @@
         <v>64</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>63</v>
@@ -1738,17 +1749,20 @@
       <c r="I3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>66</v>
+      <c r="J3" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1762,31 +1776,34 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="K4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="L4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="M4" s="37" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="7">
         <v>3001001</v>
       </c>
@@ -1800,25 +1817,28 @@
         <v>40</v>
       </c>
       <c r="E5" s="8">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8">
         <v>3</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <v>10</v>
       </c>
-      <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="17">
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="17">
         <v>1</v>
       </c>
-      <c r="K5" s="16">
+      <c r="L5" s="16">
         <v>3</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="7">
         <v>3001002</v>
       </c>
@@ -1832,25 +1852,28 @@
         <v>40</v>
       </c>
       <c r="E6" s="3">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>10</v>
       </c>
-      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="17">
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="17">
         <v>1</v>
       </c>
-      <c r="K6" s="16">
+      <c r="L6" s="16">
         <v>3</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="7">
         <v>3001003</v>
       </c>
@@ -1864,25 +1887,28 @@
         <v>40</v>
       </c>
       <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
         <v>3</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>10</v>
       </c>
-      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="17">
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="17">
         <v>1</v>
       </c>
-      <c r="K7" s="16">
+      <c r="L7" s="16">
         <v>3</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="7">
         <v>3001004</v>
       </c>
@@ -1896,34 +1922,37 @@
         <v>40</v>
       </c>
       <c r="E8" s="3">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10</v>
       </c>
-      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="17">
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="17">
         <v>1</v>
       </c>
-      <c r="K8" s="16">
+      <c r="L8" s="16">
         <v>3</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="L9" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="C15" s="3"/>
     </row>
   </sheetData>
